--- a/data/trans_orig/P6707-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60693</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46771</v>
+        <v>46674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>76375</v>
+        <v>75892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2191440338229935</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1688765232034137</v>
+        <v>0.1685262259766687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2757656261131137</v>
+        <v>0.274022843550409</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -764,19 +764,19 @@
         <v>41309</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29975</v>
+        <v>29331</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54942</v>
+        <v>54333</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1865501800424174</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1353645625949922</v>
+        <v>0.1324564705558691</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2481183340136657</v>
+        <v>0.2453673143003414</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -785,19 +785,19 @@
         <v>102002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82517</v>
+        <v>83548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119298</v>
+        <v>120735</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2046625228097621</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1655674710529837</v>
+        <v>0.1676346551017455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2393663270936626</v>
+        <v>0.2422495394876702</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>20357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12808</v>
+        <v>12675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30960</v>
+        <v>30568</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0735030372293204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04624481616490583</v>
+        <v>0.04576681201269068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1117867900189698</v>
+        <v>0.110372791300201</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -835,19 +835,19 @@
         <v>27194</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18176</v>
+        <v>18082</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>39037</v>
+        <v>37730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1228077411343535</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08208075725771739</v>
+        <v>0.08165949408031768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1762900703572506</v>
+        <v>0.1703890142577899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>44</v>
@@ -856,19 +856,19 @@
         <v>47551</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34611</v>
+        <v>35127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62468</v>
+        <v>64101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09540921062666052</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06944551269970933</v>
+        <v>0.07048145654493125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1253399451794908</v>
+        <v>0.128615708553878</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>70614</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55629</v>
+        <v>57215</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85833</v>
+        <v>86726</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2549646507326162</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2008598532368649</v>
+        <v>0.2065875121778321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3099176256683157</v>
+        <v>0.3131418521164454</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -906,19 +906,19 @@
         <v>49153</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36948</v>
+        <v>37057</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63487</v>
+        <v>64789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2219760205631385</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1668580339701056</v>
+        <v>0.1673474396944133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2867036415562093</v>
+        <v>0.2925841593143328</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>111</v>
@@ -927,19 +927,19 @@
         <v>119767</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99675</v>
+        <v>101165</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>139008</v>
+        <v>141698</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2403077398215351</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1999927672365295</v>
+        <v>0.2029826554889375</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2789135216355005</v>
+        <v>0.2843114445059915</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>41190</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30064</v>
+        <v>29754</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53541</v>
+        <v>54379</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1487235972810305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1085528318789889</v>
+        <v>0.1074333766892338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1933208024426194</v>
+        <v>0.1963473543360388</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -977,19 +977,19 @@
         <v>35053</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24791</v>
+        <v>24604</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47487</v>
+        <v>46574</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1582988466490994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1119577700997112</v>
+        <v>0.1111127512099942</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2144482186938182</v>
+        <v>0.2103284673141709</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -998,19 +998,19 @@
         <v>76243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61207</v>
+        <v>61405</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95855</v>
+        <v>94294</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1529778987242297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1228099397867475</v>
+        <v>0.123206948458013</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1923296372527917</v>
+        <v>0.1891964279780867</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>84101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69012</v>
+        <v>67993</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101089</v>
+        <v>98970</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3036646809340394</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2491795105221661</v>
+        <v>0.2455008257821938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3650014526439224</v>
+        <v>0.3573505509554472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>63</v>
@@ -1048,19 +1048,19 @@
         <v>68726</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>54423</v>
+        <v>54402</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82037</v>
+        <v>83018</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3103672116109912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2457745825664483</v>
+        <v>0.2456792093827912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3704786982715443</v>
+        <v>0.3749065242914928</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -1069,19 +1069,19 @@
         <v>152828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>134713</v>
+        <v>130181</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>175918</v>
+        <v>174488</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3066426280178127</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2702957384477746</v>
+        <v>0.261201722712677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3529723373183566</v>
+        <v>0.350102259661711</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>52242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39690</v>
+        <v>38133</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66483</v>
+        <v>66544</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1378054222629481</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1046956167064508</v>
+        <v>0.100586382408408</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1753693486788242</v>
+        <v>0.1755306914453959</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -1194,19 +1194,19 @@
         <v>59290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46518</v>
+        <v>45415</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74405</v>
+        <v>73879</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2361104135362606</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1852488451363914</v>
+        <v>0.1808554959997826</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2963002593451592</v>
+        <v>0.2942042463565316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -1215,19 +1215,19 @@
         <v>111533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92448</v>
+        <v>94507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131240</v>
+        <v>132567</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1769756022956206</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1466926625760571</v>
+        <v>0.1499591480831822</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2082457493854319</v>
+        <v>0.2103516018977155</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>44557</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>31946</v>
+        <v>33181</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58151</v>
+        <v>58554</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.117532431528266</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08426767808528589</v>
+        <v>0.08752576213131992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1533903826003749</v>
+        <v>0.1544552624551417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1265,19 +1265,19 @@
         <v>23776</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15818</v>
+        <v>15727</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34686</v>
+        <v>35031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09468411341440792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06299220491091446</v>
+        <v>0.06263049996563608</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1381296706156439</v>
+        <v>0.1395024554694697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>66</v>
@@ -1286,19 +1286,19 @@
         <v>68333</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54932</v>
+        <v>54255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84902</v>
+        <v>85976</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1084283898883523</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08716367316553518</v>
+        <v>0.08608969960486662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1347192028398011</v>
+        <v>0.1364232967582855</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>89450</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72834</v>
+        <v>74216</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>107082</v>
+        <v>107072</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2359504440863965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1921220246754502</v>
+        <v>0.1957660971246197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2824613640456898</v>
+        <v>0.2824351318450327</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -1336,19 +1336,19 @@
         <v>50877</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36958</v>
+        <v>38586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66356</v>
+        <v>66296</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2026052272211603</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1471783505396637</v>
+        <v>0.1536616431534457</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.264247852277334</v>
+        <v>0.2640067081638779</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>134</v>
@@ -1357,19 +1357,19 @@
         <v>140326</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>120762</v>
+        <v>122331</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>161451</v>
+        <v>164402</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2226638537421848</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1916197223284286</v>
+        <v>0.1941097635301901</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2561837862310142</v>
+        <v>0.2608666952199778</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>77685</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61943</v>
+        <v>62788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94862</v>
+        <v>95878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.204919032979103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1633948434416791</v>
+        <v>0.1656215799387848</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2502265903199484</v>
+        <v>0.2529081857424787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1407,19 +1407,19 @@
         <v>43712</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31728</v>
+        <v>32586</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58712</v>
+        <v>58553</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1740715372776061</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1263491586287497</v>
+        <v>0.1297665026296471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2338061236213671</v>
+        <v>0.2331751574291326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>114</v>
@@ -1428,19 +1428,19 @@
         <v>121397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>102234</v>
+        <v>102191</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143180</v>
+        <v>142923</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1926276737659646</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1622216040640305</v>
+        <v>0.1621525396467569</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.227191746653602</v>
+        <v>0.2267848099885326</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>115169</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96257</v>
+        <v>94463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>133580</v>
+        <v>134232</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3037926691432864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2539084773871468</v>
+        <v>0.2491760400910306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3523592310786721</v>
+        <v>0.3540783371197175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -1478,19 +1478,19 @@
         <v>73458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60082</v>
+        <v>59108</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90712</v>
+        <v>88032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2925287085505651</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2392623511614341</v>
+        <v>0.2353851031312051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3612414039226196</v>
+        <v>0.3505686041660001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>174</v>
@@ -1499,19 +1499,19 @@
         <v>188626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>166022</v>
+        <v>164554</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>212041</v>
+        <v>209904</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2993044803078778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2634365334076043</v>
+        <v>0.2611075287253602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3364588390752176</v>
+        <v>0.3330666711794316</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>50831</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38237</v>
+        <v>37809</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68378</v>
+        <v>66637</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1119779755785102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0842352044286282</v>
+        <v>0.08329020773611123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1506339555291229</v>
+        <v>0.1467985024653297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1624,19 +1624,19 @@
         <v>41430</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30856</v>
+        <v>30360</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54632</v>
+        <v>54605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1503729705725038</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1119938223977648</v>
+        <v>0.1101940481729766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1982936618395812</v>
+        <v>0.1981938472636535</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -1645,19 +1645,19 @@
         <v>92260</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>75044</v>
+        <v>74479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>111994</v>
+        <v>112777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1264797126409436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1028772150557719</v>
+        <v>0.1021024886773885</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1535318025317194</v>
+        <v>0.1546060766485925</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>36781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25132</v>
+        <v>24659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50581</v>
+        <v>52510</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08102720039992761</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05536495765259378</v>
+        <v>0.05432204196409706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.111427967015792</v>
+        <v>0.1156774669772137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -1695,19 +1695,19 @@
         <v>22004</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14399</v>
+        <v>14691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31705</v>
+        <v>32949</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07986473606466277</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05226332268316248</v>
+        <v>0.05332408445501517</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1150750954739366</v>
+        <v>0.11959050880874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -1716,19 +1716,19 @@
         <v>58785</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45659</v>
+        <v>45932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77553</v>
+        <v>74939</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08058813921142885</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06259399124677227</v>
+        <v>0.06296739058508964</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1063177262550768</v>
+        <v>0.102733095662462</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>107778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>90895</v>
+        <v>91476</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>125858</v>
+        <v>128796</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2374304821605963</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2002371433289602</v>
+        <v>0.2015179698677286</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2772582360465317</v>
+        <v>0.2837301099609238</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -1766,19 +1766,19 @@
         <v>58171</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46324</v>
+        <v>45342</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>73875</v>
+        <v>73012</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2111380178693019</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1681394097414</v>
+        <v>0.1645746096141412</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2681374786798493</v>
+        <v>0.265004838918431</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -1787,19 +1787,19 @@
         <v>165950</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>144798</v>
+        <v>143039</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192641</v>
+        <v>189941</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2274998543812356</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.198503562525874</v>
+        <v>0.1960919603169566</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2640910110074443</v>
+        <v>0.2603901212744894</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>100060</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>83181</v>
+        <v>83156</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119012</v>
+        <v>118433</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2204269860538969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1832441256356216</v>
+        <v>0.1831878659347463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.262176826849841</v>
+        <v>0.2609027381467537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -1837,19 +1837,19 @@
         <v>67691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52964</v>
+        <v>53219</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82337</v>
+        <v>83748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2456900133560377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1922368268805662</v>
+        <v>0.1931622725446749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2988499724762447</v>
+        <v>0.3039704908257523</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -1858,19 +1858,19 @@
         <v>167751</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145754</v>
+        <v>145272</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>188979</v>
+        <v>191061</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2299687968913259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1998132263998295</v>
+        <v>0.1991534112664663</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2590707663706459</v>
+        <v>0.2619256015738455</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>158486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139637</v>
+        <v>138272</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180457</v>
+        <v>180826</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3491373558070689</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3076128042886514</v>
+        <v>0.3046061126591929</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3975384087651881</v>
+        <v>0.3983508777025951</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -1908,19 +1908,19 @@
         <v>86217</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70018</v>
+        <v>71010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101889</v>
+        <v>101998</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3129342621374938</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2541363998930556</v>
+        <v>0.2577388538215614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3698169913823514</v>
+        <v>0.3702140682609288</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>231</v>
@@ -1929,19 +1929,19 @@
         <v>244704</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218402</v>
+        <v>219593</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271675</v>
+        <v>271201</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3354634968750661</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2994071501308715</v>
+        <v>0.3010391119276115</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3724385130471742</v>
+        <v>0.3717894007128277</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>49073</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36183</v>
+        <v>36113</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65185</v>
+        <v>64651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1666834319232592</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1229009182436143</v>
+        <v>0.1226630398964394</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2214087295002229</v>
+        <v>0.2195953740101154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -2054,19 +2054,19 @@
         <v>38819</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28601</v>
+        <v>27857</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>50826</v>
+        <v>50312</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2122827247123012</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1564035451979161</v>
+        <v>0.1523397177982063</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2779463986442973</v>
+        <v>0.2751311605806321</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2075,19 +2075,19 @@
         <v>87892</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72130</v>
+        <v>71451</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107481</v>
+        <v>106933</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1841544843337768</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1511288742176873</v>
+        <v>0.1497068106719276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.225196339383244</v>
+        <v>0.2240488794490786</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>17068</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9201</v>
+        <v>9399</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27035</v>
+        <v>27708</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.057973364743935</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03125176275542458</v>
+        <v>0.03192392667785433</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09182613031796615</v>
+        <v>0.0941127998955219</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2125,19 +2125,19 @@
         <v>14973</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8887</v>
+        <v>8620</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>24273</v>
+        <v>22690</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08187791275352388</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04859746037422367</v>
+        <v>0.04713756822809174</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1327395330030046</v>
+        <v>0.1240829430724284</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>30</v>
@@ -2146,19 +2146,19 @@
         <v>32041</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21369</v>
+        <v>21847</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45114</v>
+        <v>45820</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06713222633105205</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04477327463754618</v>
+        <v>0.04577385287514342</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09452344267571604</v>
+        <v>0.09600331649753525</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>47926</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35330</v>
+        <v>36081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62717</v>
+        <v>62912</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1627873652716689</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.120002941816924</v>
+        <v>0.1225531777778195</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2130255664107565</v>
+        <v>0.2136899843136433</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -2196,19 +2196,19 @@
         <v>38762</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>27906</v>
+        <v>28025</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>53055</v>
+        <v>51258</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2119707314036817</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1526066602559356</v>
+        <v>0.1532570474940374</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2901337093534821</v>
+        <v>0.2803080898345333</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>80</v>
@@ -2217,19 +2217,19 @@
         <v>86688</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69332</v>
+        <v>69336</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>105755</v>
+        <v>105047</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1816316304973034</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1452673816962498</v>
+        <v>0.1452741066489583</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2215798965458054</v>
+        <v>0.2200984347332642</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>79032</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63608</v>
+        <v>64979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94521</v>
+        <v>98593</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2684420271752037</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2160527939534891</v>
+        <v>0.2207103396946771</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3210510098686733</v>
+        <v>0.3348827223674855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -2267,19 +2267,19 @@
         <v>36137</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26047</v>
+        <v>26106</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>50355</v>
+        <v>48678</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1976181880869478</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1424398537085275</v>
+        <v>0.1427622428754773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2753704967346273</v>
+        <v>0.2662002250003317</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>108</v>
@@ -2288,19 +2288,19 @@
         <v>115169</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97002</v>
+        <v>96677</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>139315</v>
+        <v>136268</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2413063649983917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2032423563566395</v>
+        <v>0.2025596166885681</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2918960445767336</v>
+        <v>0.2855129818191252</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>101311</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>83782</v>
+        <v>85323</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118068</v>
+        <v>118536</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3441138108859332</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2845768669310628</v>
+        <v>0.2898087096282971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4010323682587991</v>
+        <v>0.4026226514079556</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>46</v>
@@ -2338,19 +2338,19 @@
         <v>54174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41859</v>
+        <v>42522</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>68362</v>
+        <v>69609</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2962504430435454</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2289082938679032</v>
+        <v>0.232535336465816</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3738380049206854</v>
+        <v>0.3806625465176063</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>138</v>
@@ -2359,19 +2359,19 @@
         <v>155484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>134552</v>
+        <v>134622</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>179602</v>
+        <v>178730</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3257752938394761</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.281917353084612</v>
+        <v>0.2820642355011242</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3763074139553107</v>
+        <v>0.3744797299289693</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>212840</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>186320</v>
+        <v>186393</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>243452</v>
+        <v>242246</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1515515137508942</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.132668529510618</v>
+        <v>0.1327201752082938</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1733489481071211</v>
+        <v>0.172489988512488</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>168</v>
@@ -2484,19 +2484,19 @@
         <v>180848</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>156865</v>
+        <v>155742</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>204300</v>
+        <v>207911</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1942667284876516</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1685045927989404</v>
+        <v>0.1672983260796247</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2194594278368846</v>
+        <v>0.2233382124130662</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>360</v>
@@ -2505,19 +2505,19 @@
         <v>393687</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>354195</v>
+        <v>356400</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>431764</v>
+        <v>430868</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1685789463038785</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1516679517570465</v>
+        <v>0.1526122947854024</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1848835473313112</v>
+        <v>0.1844998012490325</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>118763</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97296</v>
+        <v>97648</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140929</v>
+        <v>142002</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08456470404089875</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0692793291385396</v>
+        <v>0.06952982400037021</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1003475050551557</v>
+        <v>0.1011117853476902</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -2555,19 +2555,19 @@
         <v>87947</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>69421</v>
+        <v>72641</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>107518</v>
+        <v>107797</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09447235943497088</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07457156535425183</v>
+        <v>0.07803119694018981</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1154959429281565</v>
+        <v>0.1157952558787899</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>195</v>
@@ -2576,19 +2576,19 @@
         <v>206710</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178343</v>
+        <v>180603</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>235935</v>
+        <v>238309</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08851416174631917</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0763672367106043</v>
+        <v>0.07733529788054706</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1010286249509199</v>
+        <v>0.1020449093299096</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>315768</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>285080</v>
+        <v>286685</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>349345</v>
+        <v>346368</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2248410892320689</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2029898867480373</v>
+        <v>0.2041324248153286</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2487495046759474</v>
+        <v>0.2466294691510873</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>181</v>
@@ -2626,19 +2626,19 @@
         <v>196963</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>170714</v>
+        <v>172821</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>222071</v>
+        <v>226900</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2115779080946732</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.183380732149732</v>
+        <v>0.1856439082539978</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2385484031182221</v>
+        <v>0.2437358468352606</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>484</v>
@@ -2647,19 +2647,19 @@
         <v>512731</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>469987</v>
+        <v>473858</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>553216</v>
+        <v>552273</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2195540287865859</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2012506798089775</v>
+        <v>0.2029082223741753</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2368899261612318</v>
+        <v>0.2364862209544873</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>297967</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>267901</v>
+        <v>267004</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>331625</v>
+        <v>331436</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2121661211379555</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1907579882229641</v>
+        <v>0.1901190749981071</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2361323727969073</v>
+        <v>0.2359975579739409</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>169</v>
@@ -2697,19 +2697,19 @@
         <v>182592</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>156546</v>
+        <v>159122</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>206594</v>
+        <v>207981</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1961409159619583</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1681619768910745</v>
+        <v>0.1709288864213881</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2219235200949353</v>
+        <v>0.2234134946469435</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>453</v>
@@ -2718,19 +2718,19 @@
         <v>480560</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>442307</v>
+        <v>443761</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>525390</v>
+        <v>525690</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2057780436820972</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1893982182425051</v>
+        <v>0.1900205212385141</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2249748129387646</v>
+        <v>0.2251031672984219</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>459067</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>425327</v>
+        <v>428300</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>497026</v>
+        <v>500885</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3268765718381826</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.302851900755067</v>
+        <v>0.3049689029954591</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3539050099490947</v>
+        <v>0.3566531054402969</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>256</v>
@@ -2768,19 +2768,19 @@
         <v>282575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>251231</v>
+        <v>253041</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>310674</v>
+        <v>311790</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3035420880207459</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2698727702502765</v>
+        <v>0.2718171429491614</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3337260185354091</v>
+        <v>0.3349248290810924</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>686</v>
@@ -2789,19 +2789,19 @@
         <v>741642</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>693790</v>
+        <v>697432</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>789205</v>
+        <v>792489</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3175748194811192</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2970845299456382</v>
+        <v>0.2986437159220052</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3379413416949628</v>
+        <v>0.3393476869160276</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>55489</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43346</v>
+        <v>41934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71280</v>
+        <v>70956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1890087653087567</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1476475787306723</v>
+        <v>0.1428392543797721</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2427986944358063</v>
+        <v>0.2416923742639636</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3154,19 +3154,19 @@
         <v>50241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37747</v>
+        <v>38317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63416</v>
+        <v>64375</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1812237112525679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1361589829406525</v>
+        <v>0.1382139860354668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2287467663515721</v>
+        <v>0.2322054655508396</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -3175,19 +3175,19 @@
         <v>105730</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87721</v>
+        <v>88113</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126835</v>
+        <v>126650</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1852277156437168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1536781057965924</v>
+        <v>0.1543642973981807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2222014009886305</v>
+        <v>0.2218774036575607</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>55540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44139</v>
+        <v>42925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>71093</v>
+        <v>70679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1891841792098291</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1503471776819836</v>
+        <v>0.1462142007049101</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2421599125305404</v>
+        <v>0.240750355326383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -3225,19 +3225,19 @@
         <v>49815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37341</v>
+        <v>37843</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64644</v>
+        <v>64452</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1796884144142241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1346927301625106</v>
+        <v>0.1365040373504161</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2331780016040806</v>
+        <v>0.2324833986450322</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>99</v>
@@ -3246,19 +3246,19 @@
         <v>105356</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87507</v>
+        <v>88059</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>126113</v>
+        <v>123744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1845722705396282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1533027935271604</v>
+        <v>0.1542703685654611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2209372489351537</v>
+        <v>0.2167866851828665</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>97541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80597</v>
+        <v>80081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114802</v>
+        <v>114568</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.332248064853722</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2745347854425768</v>
+        <v>0.2727769300983022</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3910428739699238</v>
+        <v>0.3902487690192052</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -3296,19 +3296,19 @@
         <v>85780</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>70375</v>
+        <v>71161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>101132</v>
+        <v>100988</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3094168106903229</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2538499871976854</v>
+        <v>0.256683292522514</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3647940771957273</v>
+        <v>0.3642739588429926</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -3317,19 +3317,19 @@
         <v>183321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>158534</v>
+        <v>160316</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>205597</v>
+        <v>204846</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3211593678088587</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2777349496484472</v>
+        <v>0.2808576264006319</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3601851218828411</v>
+        <v>0.3588688378566222</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>41450</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30931</v>
+        <v>31183</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55311</v>
+        <v>55493</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1411900925887384</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1053570373040009</v>
+        <v>0.1062183112217998</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1884013841122308</v>
+        <v>0.1890238648914128</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -3367,19 +3367,19 @@
         <v>53750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41202</v>
+        <v>41088</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68746</v>
+        <v>67685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.19388337317601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1486202198063029</v>
+        <v>0.148209293721507</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2479745200393354</v>
+        <v>0.2441466436618945</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>92</v>
@@ -3388,19 +3388,19 @@
         <v>95201</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79064</v>
+        <v>77677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113538</v>
+        <v>114011</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1667821963142064</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1385128221662363</v>
+        <v>0.1360831216542116</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1989069632301125</v>
+        <v>0.1997360917387754</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>43558</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32224</v>
+        <v>32039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57867</v>
+        <v>56889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1483688980389537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.109762824898703</v>
+        <v>0.1091325114891911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1971109104760732</v>
+        <v>0.1937768622840497</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -3438,19 +3438,19 @@
         <v>37645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28059</v>
+        <v>26731</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50564</v>
+        <v>49948</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.135787690466875</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1012105263618004</v>
+        <v>0.09642120896210024</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1823879772917971</v>
+        <v>0.1801677245846066</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>75</v>
@@ -3459,19 +3459,19 @@
         <v>81202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65301</v>
+        <v>64201</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99726</v>
+        <v>98833</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1422584496935899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1144001409243972</v>
+        <v>0.1124732689837019</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1747093955447978</v>
+        <v>0.1731446288835239</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>59727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46867</v>
+        <v>45605</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75710</v>
+        <v>74775</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1529613952169558</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1200259014110325</v>
+        <v>0.1167936839822913</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1938917192139839</v>
+        <v>0.1914991152639941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -3584,19 +3584,19 @@
         <v>64896</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>51214</v>
+        <v>52356</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78553</v>
+        <v>79604</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.240307469648156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1896437915190248</v>
+        <v>0.1938715022983477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2908801595265821</v>
+        <v>0.2947732672076102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -3605,19 +3605,19 @@
         <v>124623</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105639</v>
+        <v>103580</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145183</v>
+        <v>145657</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1886723381548233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1599313208200571</v>
+        <v>0.1568136191771122</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2197983029181058</v>
+        <v>0.2205159080252288</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>65350</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50800</v>
+        <v>51827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>81570</v>
+        <v>80314</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1673606907577583</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1300989194183837</v>
+        <v>0.132729651057152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2089006242278942</v>
+        <v>0.2056821209586176</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -3655,19 +3655,19 @@
         <v>27434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19228</v>
+        <v>18561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39133</v>
+        <v>38401</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1015884152443232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07120226076475193</v>
+        <v>0.0687300321242542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1449099871797351</v>
+        <v>0.1421994807335845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -3676,19 +3676,19 @@
         <v>92784</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75739</v>
+        <v>76763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>111082</v>
+        <v>112707</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1404700721117646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1146637885055165</v>
+        <v>0.1162143015222444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1681721142387699</v>
+        <v>0.170631306741772</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>115602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>97366</v>
+        <v>95008</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134925</v>
+        <v>133326</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2960553381038246</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.249353307115984</v>
+        <v>0.2433135825471158</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3455408765194462</v>
+        <v>0.3414476960880955</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>68</v>
@@ -3726,19 +3726,19 @@
         <v>67800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53971</v>
+        <v>54119</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84011</v>
+        <v>82040</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2510633256032985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1998533237481527</v>
+        <v>0.2004021701152003</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3110901620925599</v>
+        <v>0.3037936725715157</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>177</v>
@@ -3747,19 +3747,19 @@
         <v>183402</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>160337</v>
+        <v>161517</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>208786</v>
+        <v>206602</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2776606111337916</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2427413119764666</v>
+        <v>0.2445280446529653</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3160896314900692</v>
+        <v>0.3127833253125736</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>88409</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73404</v>
+        <v>71736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108353</v>
+        <v>105688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2264156031592772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1879866036082305</v>
+        <v>0.1837141357682328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2774899408613573</v>
+        <v>0.2706667479074938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3797,19 +3797,19 @@
         <v>50887</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37963</v>
+        <v>39285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63670</v>
+        <v>65008</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1884348694958619</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1405745418665969</v>
+        <v>0.145471260154009</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2357669830587687</v>
+        <v>0.2407215089079695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -3818,19 +3818,19 @@
         <v>139297</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>118393</v>
+        <v>118473</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161413</v>
+        <v>157861</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2108873974393864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1792407959563835</v>
+        <v>0.179362046579913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2443700711077623</v>
+        <v>0.2389929587962537</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>61385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47483</v>
+        <v>45951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76083</v>
+        <v>76246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1572069727621841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.121603043784572</v>
+        <v>0.1176797219041281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1948466815839882</v>
+        <v>0.1952649385698416</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -3868,19 +3868,19 @@
         <v>59035</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45448</v>
+        <v>44968</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74575</v>
+        <v>73661</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2186059200083604</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1682933087942212</v>
+        <v>0.1665164452934569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2761512762175276</v>
+        <v>0.2727647489578785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>114</v>
@@ -3889,19 +3889,19 @@
         <v>120420</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101555</v>
+        <v>101007</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>141239</v>
+        <v>141719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.182309581160234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1537488322358236</v>
+        <v>0.1529183270395653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2138275654114266</v>
+        <v>0.2145548162651548</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>88308</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70994</v>
+        <v>69366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105651</v>
+        <v>105348</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1935771614959721</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1556246499869151</v>
+        <v>0.1520549155498991</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2315943352247873</v>
+        <v>0.2309311745291954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -4014,19 +4014,19 @@
         <v>42435</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31411</v>
+        <v>31387</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55357</v>
+        <v>55836</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1460075923087622</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1080773795267766</v>
+        <v>0.1079944575739735</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1904686341070277</v>
+        <v>0.1921175758550341</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>125</v>
@@ -4035,19 +4035,19 @@
         <v>130743</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108517</v>
+        <v>111330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151093</v>
+        <v>150996</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.175064906506175</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1453043939890716</v>
+        <v>0.1490715709911226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2023142340474821</v>
+        <v>0.2021845736813898</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>66740</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52887</v>
+        <v>52780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83138</v>
+        <v>84411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1462988456585947</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1159314008548822</v>
+        <v>0.1156969052513957</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1822448681750155</v>
+        <v>0.1850360080862074</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -4085,19 +4085,19 @@
         <v>44510</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33132</v>
+        <v>33046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57581</v>
+        <v>58282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1531464023596656</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1139971833670565</v>
+        <v>0.1137027865821612</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1981221646319384</v>
+        <v>0.2005331073819706</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -4106,19 +4106,19 @@
         <v>111250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>91586</v>
+        <v>93240</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>131358</v>
+        <v>133060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1489636525482354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1226341366402466</v>
+        <v>0.1248486368500545</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.175889196965337</v>
+        <v>0.1781680312306081</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>113175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>94475</v>
+        <v>94919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>132165</v>
+        <v>132756</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2480895429605086</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2070965130500306</v>
+        <v>0.2080698247369513</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2897155378933229</v>
+        <v>0.2910119774333028</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -4156,19 +4156,19 @@
         <v>82363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>67767</v>
+        <v>68143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97665</v>
+        <v>98270</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2833901356033358</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2331678494826865</v>
+        <v>0.2344627557731636</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3360415253766209</v>
+        <v>0.3381231094237348</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>186</v>
@@ -4177,19 +4177,19 @@
         <v>195539</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>171914</v>
+        <v>169969</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>221992</v>
+        <v>220405</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2618271820323099</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2301933085788942</v>
+        <v>0.2275888391480195</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2972486601573384</v>
+        <v>0.29512361282233</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>97286</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>80313</v>
+        <v>78397</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115189</v>
+        <v>117013</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2132577443039601</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1760531720608904</v>
+        <v>0.1718520418938548</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2525023856259301</v>
+        <v>0.2565016327052355</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -4227,19 +4227,19 @@
         <v>83718</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69916</v>
+        <v>69697</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100611</v>
+        <v>99659</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2880513065587672</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2405628182900517</v>
+        <v>0.2398097943160256</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3461762165990625</v>
+        <v>0.3429003643573432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>177</v>
@@ -4248,19 +4248,19 @@
         <v>181004</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159312</v>
+        <v>157147</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>206157</v>
+        <v>203990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2423645350467387</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.213319562855162</v>
+        <v>0.210421054499046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.276044493025026</v>
+        <v>0.2731431820402604</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>90680</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75023</v>
+        <v>73805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>110275</v>
+        <v>108812</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1987767055809646</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1644562921483067</v>
+        <v>0.1617874474913032</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2417313958338172</v>
+        <v>0.2385245822212355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>37</v>
@@ -4298,19 +4298,19 @@
         <v>37609</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26730</v>
+        <v>27385</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49456</v>
+        <v>50502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1294045631694692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09197042614269708</v>
+        <v>0.09422414655938599</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1701641863177199</v>
+        <v>0.1737644465127738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -4319,19 +4319,19 @@
         <v>128289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>108005</v>
+        <v>107235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>149686</v>
+        <v>150724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1717797238665409</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1446185190671418</v>
+        <v>0.1435884903643105</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2004294641284928</v>
+        <v>0.2018196548399921</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>57244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43288</v>
+        <v>43847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71556</v>
+        <v>71870</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2080465673127898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1573267225026129</v>
+        <v>0.1593555258590836</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2600622061275541</v>
+        <v>0.2612033057586383</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -4444,19 +4444,19 @@
         <v>55337</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43998</v>
+        <v>43261</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70036</v>
+        <v>68872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2851480127208721</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2267223213654536</v>
+        <v>0.2229212440898703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3608949649422847</v>
+        <v>0.3548965044527301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>105</v>
@@ -4465,19 +4465,19 @@
         <v>112580</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94535</v>
+        <v>96050</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132774</v>
+        <v>133175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2399351982086436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2014762088306523</v>
+        <v>0.2047039460362167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2829714163576688</v>
+        <v>0.2838269889624485</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>32720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22579</v>
+        <v>22262</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45595</v>
+        <v>43763</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1189159511434136</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08206085836414743</v>
+        <v>0.08090891825007893</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1657095134748326</v>
+        <v>0.1590502015616551</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -4515,19 +4515,19 @@
         <v>21799</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>13357</v>
+        <v>14059</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32055</v>
+        <v>32673</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1123303212194663</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06882937560112022</v>
+        <v>0.07244795382572586</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1651769383445698</v>
+        <v>0.1683639539861908</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>49</v>
@@ -4536,19 +4536,19 @@
         <v>54519</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>40483</v>
+        <v>41492</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>69233</v>
+        <v>71007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1161921796142299</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08627778110740739</v>
+        <v>0.08842820640031671</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1475515124251539</v>
+        <v>0.1513325472499998</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>54504</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41755</v>
+        <v>42117</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69570</v>
+        <v>68923</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1980907804715642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1517559210598978</v>
+        <v>0.1530708465462479</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2528445034123714</v>
+        <v>0.2504939094574464</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -4586,19 +4586,19 @@
         <v>36679</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26343</v>
+        <v>26849</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48545</v>
+        <v>49219</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1890075666306223</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1357463359291529</v>
+        <v>0.1383524146898302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2501483495125235</v>
+        <v>0.2536238393437451</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>85</v>
@@ -4607,19 +4607,19 @@
         <v>91184</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>74208</v>
+        <v>74426</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>108782</v>
+        <v>111261</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1943340253032423</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1581537999770173</v>
+        <v>0.1586185991337978</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2318396613503098</v>
+        <v>0.2371240143205663</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>55769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43565</v>
+        <v>43437</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>71501</v>
+        <v>69506</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2026881184869243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1583310207437384</v>
+        <v>0.1578687080603801</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2598637876963305</v>
+        <v>0.2526129066244682</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>31</v>
@@ -4657,19 +4657,19 @@
         <v>32409</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23136</v>
+        <v>22903</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44231</v>
+        <v>44434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1670043915800198</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1192164626082113</v>
+        <v>0.1180165587688312</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2279223780502385</v>
+        <v>0.2289652804464035</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>82</v>
@@ -4678,19 +4678,19 @@
         <v>88179</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>72368</v>
+        <v>70627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>106935</v>
+        <v>105909</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1879295729071363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1542333504460911</v>
+        <v>0.1505219945200138</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.227904408706808</v>
+        <v>0.2257156912302682</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>74912</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60296</v>
+        <v>60893</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91869</v>
+        <v>90805</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2722585825853081</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2191399578582993</v>
+        <v>0.2213089869788506</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3338897770172077</v>
+        <v>0.3300203623478554</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>45</v>
@@ -4728,19 +4728,19 @@
         <v>47838</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>35670</v>
+        <v>36089</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>60463</v>
+        <v>60090</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2465097078490195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1838054044604367</v>
+        <v>0.1859652778813172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3115655437834573</v>
+        <v>0.3096432312942299</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -4749,19 +4749,19 @@
         <v>122750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>103154</v>
+        <v>104802</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>144930</v>
+        <v>143396</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.261609023966748</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2198455263491439</v>
+        <v>0.2233564040234955</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3088792918759248</v>
+        <v>0.3056098990466243</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>260768</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>231303</v>
+        <v>233039</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>292492</v>
+        <v>291868</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.184237444683307</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1634200351415817</v>
+        <v>0.1646463124631354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2066514463861803</v>
+        <v>0.2062104824988522</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>205</v>
@@ -4874,19 +4874,19 @@
         <v>212908</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186133</v>
+        <v>188689</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>239695</v>
+        <v>239129</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2063099571820494</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1803649064681847</v>
+        <v>0.1828411669249095</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.232267063931465</v>
+        <v>0.2317179162516544</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>445</v>
@@ -4895,19 +4895,19 @@
         <v>473676</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>434256</v>
+        <v>436232</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>512613</v>
+        <v>515200</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1935447463909618</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1774377531652422</v>
+        <v>0.1782452457444441</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2094543676894207</v>
+        <v>0.2105116905918549</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>220350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>194754</v>
+        <v>191697</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>249149</v>
+        <v>250163</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1556813593685404</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1375972772954901</v>
+        <v>0.1354375358684904</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1760283387440202</v>
+        <v>0.1767449317464967</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>140</v>
@@ -4945,19 +4945,19 @@
         <v>143558</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>122574</v>
+        <v>121925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167763</v>
+        <v>167588</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1391093330498343</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1187755368065582</v>
+        <v>0.118146592025663</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1625635153584207</v>
+        <v>0.1623945528598629</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>347</v>
@@ -4966,19 +4966,19 @@
         <v>363908</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>331540</v>
+        <v>328525</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>402087</v>
+        <v>399974</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1486934440206985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.135467784515497</v>
+        <v>0.1342357089059663</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1642931919158923</v>
+        <v>0.163429918790554</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>380823</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348196</v>
+        <v>350505</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>417629</v>
+        <v>414143</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2690585881075436</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2460071231231264</v>
+        <v>0.2476383933697545</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2950631038391022</v>
+        <v>0.2925999096108449</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>273</v>
@@ -5016,19 +5016,19 @@
         <v>272623</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>245189</v>
+        <v>244816</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>303033</v>
+        <v>301535</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2641739893432472</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2375908396530141</v>
+        <v>0.237228820986335</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2936417720034785</v>
+        <v>0.2921905445784819</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>623</v>
@@ -5037,19 +5037,19 @@
         <v>653446</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>608794</v>
+        <v>610427</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>700166</v>
+        <v>696845</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2669989025858915</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2487540338094706</v>
+        <v>0.2494215721956673</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2860888574659202</v>
+        <v>0.2847320027922134</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>282915</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>251990</v>
+        <v>253689</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>314253</v>
+        <v>315894</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1998848194433649</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1780359653903645</v>
+        <v>0.1792363108082329</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2220258298484373</v>
+        <v>0.2231849744859569</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>216</v>
@@ -5087,19 +5087,19 @@
         <v>220765</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>194661</v>
+        <v>197368</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>247592</v>
+        <v>248528</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.213923375572863</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1886280343683746</v>
+        <v>0.1912513334759561</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2399185352645162</v>
+        <v>0.2408263643698511</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>485</v>
@@ -5108,19 +5108,19 @@
         <v>503680</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>461468</v>
+        <v>466678</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>545930</v>
+        <v>549806</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.205804448096629</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1885564802791372</v>
+        <v>0.1906852163126663</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2230678027008824</v>
+        <v>0.2246515211169352</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>270535</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>242782</v>
+        <v>239395</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>301516</v>
+        <v>301523</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1911377883972441</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1715302834072873</v>
+        <v>0.1691372325816012</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2130270533423294</v>
+        <v>0.2130315586471189</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>174</v>
@@ -5158,19 +5158,19 @@
         <v>182128</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>156233</v>
+        <v>156748</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>206192</v>
+        <v>207269</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1764833448520061</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1513908069873649</v>
+        <v>0.1518898539524722</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1998019630113889</v>
+        <v>0.2008459287134901</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>424</v>
@@ -5179,19 +5179,19 @@
         <v>452662</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>414395</v>
+        <v>414932</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>494492</v>
+        <v>495186</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1849584589058192</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1693224105885457</v>
+        <v>0.1695417916475295</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2020501729608661</v>
+        <v>0.2023338519849779</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>16504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8863</v>
+        <v>8359</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25079</v>
+        <v>24782</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4271328265160891</v>
+        <v>0.427132826516089</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2293723808866361</v>
+        <v>0.2163434650519684</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6490634408480036</v>
+        <v>0.6413710445828795</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -5544,19 +5544,19 @@
         <v>15895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10207</v>
+        <v>10644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21985</v>
+        <v>21892</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4102706985182965</v>
+        <v>0.4102706985182964</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2634598714618834</v>
+        <v>0.2747313662594131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5674528488103765</v>
+        <v>0.5650594523364395</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5565,19 +5565,19 @@
         <v>32399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23578</v>
+        <v>23894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43769</v>
+        <v>43408</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4186904453910845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3046916950063746</v>
+        <v>0.3087791266478304</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5656213582624862</v>
+        <v>0.5609577228049383</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>7073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2231</v>
+        <v>2532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14781</v>
+        <v>15725</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.183058631246399</v>
+        <v>0.1830586312463989</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0577436685245369</v>
+        <v>0.06553718027454301</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3825315868533594</v>
+        <v>0.4069805424034626</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -5615,19 +5615,19 @@
         <v>6155</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2687</v>
+        <v>2873</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11784</v>
+        <v>11788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1588792711332374</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06935526356932482</v>
+        <v>0.07415366256884237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3041576052935732</v>
+        <v>0.3042556398315003</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -5636,19 +5636,19 @@
         <v>13229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6842</v>
+        <v>7198</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22446</v>
+        <v>22619</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1709527230561181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08841434899976212</v>
+        <v>0.09301605532523316</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2900731172771576</v>
+        <v>0.2923073993763167</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>6714</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2390</v>
+        <v>2438</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14256</v>
+        <v>13624</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1737598436529975</v>
+        <v>0.1737598436529974</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06184589050352299</v>
+        <v>0.06308814576191989</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.36895407634457</v>
+        <v>0.3525991355037671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -5686,19 +5686,19 @@
         <v>5607</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2572</v>
+        <v>2530</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9729</v>
+        <v>10409</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1447307528709036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06639320744648892</v>
+        <v>0.06530000144747379</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2511189550430921</v>
+        <v>0.2686730948407932</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -5707,19 +5707,19 @@
         <v>12321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6669</v>
+        <v>6652</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20009</v>
+        <v>20213</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1592258152001904</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08618182766538568</v>
+        <v>0.08596898550409114</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2585797748510588</v>
+        <v>0.261212944582112</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>4023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1027</v>
+        <v>1157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11269</v>
+        <v>10686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1041125948448775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0265738573480874</v>
+        <v>0.02995510437175549</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2916385606686978</v>
+        <v>0.2765581036971443</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5757,19 +5757,19 @@
         <v>3686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8034</v>
+        <v>8643</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09515165727446598</v>
+        <v>0.09515165727446595</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03654073066196708</v>
+        <v>0.03631921260918303</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2073721142653938</v>
+        <v>0.2230940906484529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -5778,19 +5778,19 @@
         <v>7709</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3185</v>
+        <v>3475</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14249</v>
+        <v>15252</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09962611186854796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04115795135659119</v>
+        <v>0.04490544818445919</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1841323653993289</v>
+        <v>0.1970941316830828</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>4325</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1124</v>
+        <v>1010</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10456</v>
+        <v>9443</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1119361037396371</v>
+        <v>0.111936103739637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02908792342934307</v>
+        <v>0.02614646368694604</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2706165245271483</v>
+        <v>0.2443895863656532</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5828,19 +5828,19 @@
         <v>7399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3476</v>
+        <v>3106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13714</v>
+        <v>13393</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1909676202030965</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08970685241754084</v>
+        <v>0.08017401954441257</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3539826418661205</v>
+        <v>0.3456798248189531</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>12</v>
@@ -5849,19 +5849,19 @@
         <v>11724</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6422</v>
+        <v>6000</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>20423</v>
+        <v>20262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1515049044840589</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08298731244992119</v>
+        <v>0.07754041263853829</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2639246680238745</v>
+        <v>0.2618474625361746</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>31813</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21694</v>
+        <v>21363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44070</v>
+        <v>44671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2722741980964337</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1856691821999082</v>
+        <v>0.1828330091255948</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3771787194877846</v>
+        <v>0.3823156197388017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -5974,19 +5974,19 @@
         <v>43046</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34773</v>
+        <v>34250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53279</v>
+        <v>53860</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4383477709182373</v>
+        <v>0.4383477709182375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3541035101313655</v>
+        <v>0.3487761788485312</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5425488545406313</v>
+        <v>0.5484692283174168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -5995,19 +5995,19 @@
         <v>74859</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60852</v>
+        <v>59800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88962</v>
+        <v>91182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3481132166664591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2829736959521333</v>
+        <v>0.2780855735067348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.413693458267395</v>
+        <v>0.4240185080077687</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>22826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14558</v>
+        <v>13491</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34537</v>
+        <v>34089</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1953562562210767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1245943714010391</v>
+        <v>0.1154642450050028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2955846176163121</v>
+        <v>0.2917561511376439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6045,19 +6045,19 @@
         <v>17177</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11635</v>
+        <v>10965</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25374</v>
+        <v>24754</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.174920216347608</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.118481145077423</v>
+        <v>0.1116600239650015</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.258388102979114</v>
+        <v>0.2520780062867189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>37</v>
@@ -6066,19 +6066,19 @@
         <v>40003</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28971</v>
+        <v>28699</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>55184</v>
+        <v>53931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1860239513809517</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1347216104300669</v>
+        <v>0.133459137509208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2566192067710141</v>
+        <v>0.2507927089732608</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>33187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23244</v>
+        <v>22542</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46814</v>
+        <v>44495</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2840314674122933</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1989329793644553</v>
+        <v>0.1929288931521007</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4006577177762498</v>
+        <v>0.3808161168605879</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6116,19 +6116,19 @@
         <v>16781</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10750</v>
+        <v>11032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24452</v>
+        <v>23739</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1708792003165119</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1094698369416339</v>
+        <v>0.1123365071689135</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.249003792183744</v>
+        <v>0.2417423894713203</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -6137,19 +6137,19 @@
         <v>49967</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38723</v>
+        <v>37756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64962</v>
+        <v>63703</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2323594479590526</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1800727423116336</v>
+        <v>0.1755764363428279</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3020876488732925</v>
+        <v>0.2962331522098557</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>17036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9895</v>
+        <v>10330</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27472</v>
+        <v>28123</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1458014930718362</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08468600655602032</v>
+        <v>0.08840664137132162</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2351189708441367</v>
+        <v>0.2406909424002731</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -6187,19 +6187,19 @@
         <v>10855</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6190</v>
+        <v>5821</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18219</v>
+        <v>17681</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1105389653317508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06302892126117976</v>
+        <v>0.05927343914089239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1855277175373692</v>
+        <v>0.1800486106412307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -6208,19 +6208,19 @@
         <v>27891</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19048</v>
+        <v>18669</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40583</v>
+        <v>40417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1296985367093819</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08857652132304306</v>
+        <v>0.08681560699907954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1887222132028268</v>
+        <v>0.1879494377397776</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>11981</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6417</v>
+        <v>6289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20498</v>
+        <v>19571</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1025365851983601</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05492426211501156</v>
+        <v>0.05382315751608799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1754350716283005</v>
+        <v>0.1675030926549834</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -6258,19 +6258,19 @@
         <v>10342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5786</v>
+        <v>5665</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17560</v>
+        <v>16805</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.105313847085892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05891814899557959</v>
+        <v>0.05768750175504047</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1788138372159247</v>
+        <v>0.1711287134837574</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -6279,19 +6279,19 @@
         <v>22323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14361</v>
+        <v>14478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>31928</v>
+        <v>32594</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1038048472841548</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0667820916591897</v>
+        <v>0.06732531422736265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.148472724022332</v>
+        <v>0.1515690433618747</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>20051</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11096</v>
+        <v>11824</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32010</v>
+        <v>32603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.170901380848088</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09457588710664133</v>
+        <v>0.1007813455508919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2728345727500106</v>
+        <v>0.2778821151225003</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -6404,19 +6404,19 @@
         <v>34554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26658</v>
+        <v>25526</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45031</v>
+        <v>44074</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2881635491283567</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2223182178456735</v>
+        <v>0.212874379935943</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3755398168085752</v>
+        <v>0.3675601038660758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>58</v>
@@ -6425,19 +6425,19 @@
         <v>54605</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42811</v>
+        <v>42101</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70282</v>
+        <v>68011</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2301716621582382</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1804595065712705</v>
+        <v>0.177466594042149</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2962527781665747</v>
+        <v>0.2866802189090363</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>13654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6974</v>
+        <v>7222</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23114</v>
+        <v>22826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1163794328745149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05944367982141553</v>
+        <v>0.06155809704642853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1970074972980249</v>
+        <v>0.1945575857700236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -6475,19 +6475,19 @@
         <v>9570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5568</v>
+        <v>5198</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16499</v>
+        <v>15671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07981213848912982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04643788532353817</v>
+        <v>0.04335170294984016</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1375963411618852</v>
+        <v>0.1306851125847531</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -6496,19 +6496,19 @@
         <v>23225</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15442</v>
+        <v>15078</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33632</v>
+        <v>32704</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0978964570199951</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06509291771256989</v>
+        <v>0.0635567065465132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1417653237555684</v>
+        <v>0.1378534422122293</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>28361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19317</v>
+        <v>19618</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38185</v>
+        <v>38667</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2417332239181199</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1646467358660738</v>
+        <v>0.1672081052559508</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3254610580859165</v>
+        <v>0.3295732032752534</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -6546,19 +6546,19 @@
         <v>36222</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27653</v>
+        <v>27415</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45043</v>
+        <v>44641</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3020735785525769</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.230613343241645</v>
+        <v>0.2286307405006625</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3756375851182</v>
+        <v>0.3722835677173602</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -6567,19 +6567,19 @@
         <v>64583</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>52429</v>
+        <v>52498</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77914</v>
+        <v>78503</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2722323170697198</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2210004128918956</v>
+        <v>0.2212922175823581</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.328423679529487</v>
+        <v>0.3309067141016556</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>27687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19026</v>
+        <v>19414</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38272</v>
+        <v>38748</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.235982577529348</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.162160909437869</v>
+        <v>0.1654677956219108</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3262013975046643</v>
+        <v>0.3302597384822343</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -6617,19 +6617,19 @@
         <v>25919</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18670</v>
+        <v>19337</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>34235</v>
+        <v>35305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2161547211940946</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1557011815779703</v>
+        <v>0.161261092843398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.285501383125197</v>
+        <v>0.294428769886558</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -6638,19 +6638,19 @@
         <v>53606</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42578</v>
+        <v>42117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>67973</v>
+        <v>67800</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.225960567532408</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.17947363374444</v>
+        <v>0.1775333661672433</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2865207953606714</v>
+        <v>0.2857909047426842</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>27572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17650</v>
+        <v>17467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41985</v>
+        <v>42282</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2350033848299292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1504390614601761</v>
+        <v>0.1488788322702894</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3578527019568278</v>
+        <v>0.3603810062271575</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -6688,19 +6688,19 @@
         <v>13645</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7787</v>
+        <v>8092</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23371</v>
+        <v>24679</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1137960126358419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06494153870889106</v>
+        <v>0.06748429504010806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.194906916954938</v>
+        <v>0.205810568526451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -6709,19 +6709,19 @@
         <v>41217</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28939</v>
+        <v>29114</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58175</v>
+        <v>59910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.173738996219639</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1219826704992908</v>
+        <v>0.1227212276123415</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2452215873165516</v>
+        <v>0.2525352848347239</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>51515</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38614</v>
+        <v>38816</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65745</v>
+        <v>66421</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2553507717866268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1914017231318216</v>
+        <v>0.1924001316847511</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3258845553114975</v>
+        <v>0.3292322317090504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -6834,19 +6834,19 @@
         <v>35389</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>27299</v>
+        <v>26906</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45345</v>
+        <v>45036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2761724249349464</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2130380986911139</v>
+        <v>0.2099728316721356</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3538632518408683</v>
+        <v>0.3514511970021431</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>84</v>
@@ -6855,19 +6855,19 @@
         <v>86905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>70714</v>
+        <v>70409</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103718</v>
+        <v>104238</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2634387995642499</v>
+        <v>0.26343879956425</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2143595009441208</v>
+        <v>0.2134333689085079</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3144051508878009</v>
+        <v>0.3159809585599647</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>8871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3906</v>
+        <v>4129</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16110</v>
+        <v>17043</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04396999195850754</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01936150922905604</v>
+        <v>0.02046778030820656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07985265661131589</v>
+        <v>0.08447927565138577</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -6905,19 +6905,19 @@
         <v>19376</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12349</v>
+        <v>12016</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>28352</v>
+        <v>27303</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1512103736350122</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09636661664710462</v>
+        <v>0.09377043356866241</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2212517793578928</v>
+        <v>0.2130662216006621</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -6926,19 +6926,19 @@
         <v>28247</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19838</v>
+        <v>19601</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38827</v>
+        <v>39169</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08562677971229263</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06013689610371383</v>
+        <v>0.05941627018714926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1176977802099335</v>
+        <v>0.1187347036349838</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>56587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>43497</v>
+        <v>43658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>72652</v>
+        <v>73570</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2804869418145884</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2156031414607509</v>
+        <v>0.2164041446646714</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3601178180814467</v>
+        <v>0.3646679898626322</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>38</v>
@@ -6976,19 +6976,19 @@
         <v>25388</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18442</v>
+        <v>18247</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>33217</v>
+        <v>34562</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1981229190519821</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.143914669672633</v>
+        <v>0.14239844114141</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2592196462442906</v>
+        <v>0.2697156175314042</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -6997,19 +6997,19 @@
         <v>81975</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>65448</v>
+        <v>66723</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>97128</v>
+        <v>98933</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2484932043704264</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1983960529310121</v>
+        <v>0.2022590914811439</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2944292824596266</v>
+        <v>0.2998991769162023</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>31425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22198</v>
+        <v>21347</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43158</v>
+        <v>42909</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1557673936608196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1100315324243973</v>
+        <v>0.1058120418085573</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2139236603471848</v>
+        <v>0.2126917828177584</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -7047,19 +7047,19 @@
         <v>17653</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11661</v>
+        <v>11488</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25169</v>
+        <v>25673</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1377574958425334</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09099915967627237</v>
+        <v>0.08965109553378345</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1964184274562862</v>
+        <v>0.2003441539289789</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -7068,19 +7068,19 @@
         <v>49078</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37870</v>
+        <v>37190</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>63737</v>
+        <v>62718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1487715728780587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1147962887388233</v>
+        <v>0.1127351917198003</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1932084868879188</v>
+        <v>0.1901190683247512</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>53346</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38399</v>
+        <v>39303</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68251</v>
+        <v>70541</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2644249007794577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1903331313039368</v>
+        <v>0.1948184240949144</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3383028187165534</v>
+        <v>0.349654524701471</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -7118,19 +7118,19 @@
         <v>30336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>22262</v>
+        <v>22764</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39534</v>
+        <v>39566</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2367367865355259</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1737294999470706</v>
+        <v>0.1776495266875698</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3085169851371423</v>
+        <v>0.3087659826223393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>78</v>
@@ -7139,19 +7139,19 @@
         <v>83682</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>67808</v>
+        <v>66679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>102497</v>
+        <v>104330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2536696434749723</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2055495755732495</v>
+        <v>0.2021265235683181</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3107048520569942</v>
+        <v>0.3162584189955265</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>119884</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>99689</v>
+        <v>99791</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>144752</v>
+        <v>143670</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.252625804094475</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.210071064637288</v>
+        <v>0.210286306177653</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3050289903262774</v>
+        <v>0.3027505595833925</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>153</v>
@@ -7264,19 +7264,19 @@
         <v>128885</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>111631</v>
+        <v>112912</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>146891</v>
+        <v>147409</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3347677702530497</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2899516554272203</v>
+        <v>0.2932782823613763</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3815372975973432</v>
+        <v>0.3828825156581522</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>243</v>
@@ -7285,19 +7285,19 @@
         <v>248768</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>223451</v>
+        <v>218998</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>279499</v>
+        <v>276390</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2894177912447345</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2599629389000698</v>
+        <v>0.25478224838329</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.325169819727997</v>
+        <v>0.3215528124713825</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>52424</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38731</v>
+        <v>37387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>69185</v>
+        <v>69450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1104706823795816</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08161636731915466</v>
+        <v>0.07878354968036554</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1457900621635521</v>
+        <v>0.1463490153722259</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>64</v>
@@ -7335,19 +7335,19 @@
         <v>52280</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>41736</v>
+        <v>40161</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>65469</v>
+        <v>65993</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1357921183319487</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1084062279170102</v>
+        <v>0.1043153253768128</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1700496566327609</v>
+        <v>0.1714102861126235</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>104</v>
@@ -7356,19 +7356,19 @@
         <v>104704</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>87672</v>
+        <v>86338</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>127266</v>
+        <v>125647</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1218123386577757</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1019982686588131</v>
+        <v>0.1004460034384158</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1480620373074935</v>
+        <v>0.1461779375749621</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>124849</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>103542</v>
+        <v>104370</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146538</v>
+        <v>148321</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2630884120096362</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2181895561999037</v>
+        <v>0.2199337274073175</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3087933767035708</v>
+        <v>0.3125515680951461</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>119</v>
@@ -7406,19 +7406,19 @@
         <v>83998</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>69892</v>
+        <v>70964</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>98931</v>
+        <v>97731</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2181773308041012</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1815393072553524</v>
+        <v>0.1843224126159541</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2569646894008406</v>
+        <v>0.2538473895340572</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>230</v>
@@ -7427,19 +7427,19 @@
         <v>208846</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>183069</v>
+        <v>186009</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>235111</v>
+        <v>234885</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2429724104103026</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2129830545221975</v>
+        <v>0.2164034444445881</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.273528088218796</v>
+        <v>0.2732658513602242</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>80170</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>63651</v>
+        <v>62318</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>99238</v>
+        <v>98058</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1689396665861025</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1341290586132108</v>
+        <v>0.1313201910872364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2091200329981341</v>
+        <v>0.2066331407212064</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>81</v>
@@ -7477,19 +7477,19 @@
         <v>58113</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>45297</v>
+        <v>46525</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>70246</v>
+        <v>71348</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1509449220801806</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1176540156035881</v>
+        <v>0.1208438771793783</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1824592955028911</v>
+        <v>0.1853207880559753</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>155</v>
@@ -7498,19 +7498,19 @@
         <v>138284</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>118501</v>
+        <v>117634</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>161285</v>
+        <v>160650</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1608796889693509</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.137864392135116</v>
+        <v>0.1368555629461209</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1876387750178032</v>
+        <v>0.1869011087756337</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>97224</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76619</v>
+        <v>76692</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>119069</v>
+        <v>120046</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2048754349302046</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1614559650248898</v>
+        <v>0.1616095954452782</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2509086413380225</v>
+        <v>0.2529680117377069</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>76</v>
@@ -7548,19 +7548,19 @@
         <v>61722</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50448</v>
+        <v>48976</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>80407</v>
+        <v>78029</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1603178585307197</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1310334833618013</v>
+        <v>0.1272104817735158</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2088516458751651</v>
+        <v>0.2026733669113444</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>149</v>
@@ -7569,19 +7569,19 @@
         <v>158946</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>133870</v>
+        <v>135144</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>184547</v>
+        <v>188115</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1849177707178364</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1557448218168238</v>
+        <v>0.1572270221963138</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2147027976633344</v>
+        <v>0.2188535466979708</v>
       </c>
     </row>
     <row r="33">
